--- a/StructureDefinition-cbs-exposure-observation.xlsx
+++ b/StructureDefinition-cbs-exposure-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="433">
   <si>
     <t>Path</t>
   </si>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="78000-7"/&gt;
+    &lt;display value="Case notification panel [CDC.PHIN]"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -550,18 +559,14 @@
   &lt;coding&gt;
     &lt;system value="http://cbsig.chai.gatech.edu/CodeSystem/cbs-temp-code-system"/&gt;
     &lt;code value="Location-of-Exposure"/&gt;
-    &lt;display value="Temporary code for Location of Exposure"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>Codes found in the case notification panel that are otherwise not captured in other CBS profiles.</t>
+  </si>
+  <si>
+    <t>http://cbsig.chai.gatech.edu/ValueSet/CBSCaseNotificationPanelVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -796,6 +801,9 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3030</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -901,6 +909,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1197,7 +1208,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-case-notification-panel|http://cbsig.chai.gatech.edu/StructureDefinition/cbs-exposure-observation)
 </t>
   </si>
   <si>
@@ -1285,6 +1296,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1566,8 +1583,8 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.28515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.59765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="39.640625" customWidth="true" bestFit="true"/>
@@ -3234,7 +3251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>153</v>
       </c>
@@ -3244,13 +3261,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>45</v>
@@ -3281,7 +3298,7 @@
         <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>45</v>
@@ -3299,10 +3316,10 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3344,10 +3361,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3355,11 +3372,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3381,16 +3398,16 @@
         <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3400,7 +3417,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3415,7 +3432,7 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>171</v>
@@ -3439,7 +3456,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -4196,7 +4213,7 @@
         <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4361,13 +4378,11 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4420,7 +4435,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4446,16 +4461,16 @@
         <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4480,13 +4495,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4504,7 +4519,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4513,7 +4528,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4528,7 +4543,7 @@
         <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4539,11 +4554,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4565,16 +4580,16 @@
         <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4599,13 +4614,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4623,7 +4638,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4641,24 +4656,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4681,19 +4696,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4742,7 +4757,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4763,10 +4778,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4777,7 +4792,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4803,13 +4818,13 @@
         <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4835,13 +4850,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4859,7 +4874,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4877,24 +4892,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4920,16 +4935,16 @@
         <v>154</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4954,13 +4969,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4978,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4999,10 +5014,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5013,7 +5028,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5036,16 +5051,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5095,7 +5110,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5113,24 +5128,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5153,16 +5168,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5212,7 +5227,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5230,24 +5245,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5270,19 +5285,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5331,7 +5346,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5343,7 +5358,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5352,10 +5367,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5366,7 +5381,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5392,10 +5407,10 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5446,7 +5461,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5470,7 +5485,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5481,7 +5496,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5510,7 +5525,7 @@
         <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5563,7 +5578,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5587,7 +5602,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5598,11 +5613,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5624,10 +5639,10 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>104</v>
@@ -5682,7 +5697,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5717,7 +5732,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5740,13 +5755,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5797,7 +5812,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5806,7 +5821,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5818,10 +5833,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5832,7 +5847,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5855,13 +5870,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5912,7 +5927,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5921,7 +5936,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5933,10 +5948,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5947,7 +5962,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5973,16 +5988,16 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6010,10 +6025,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6031,7 +6046,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6049,13 +6064,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6066,7 +6081,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6092,16 +6107,16 @@
         <v>154</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6126,13 +6141,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6150,7 +6165,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6168,13 +6183,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6185,7 +6200,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6208,17 +6223,17 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6267,7 +6282,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6291,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6302,7 +6317,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6328,10 +6343,10 @@
         <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6382,7 +6397,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6403,10 +6418,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6415,9 +6430,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6431,7 +6446,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
@@ -6440,16 +6455,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6499,7 +6514,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6520,10 +6535,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6534,7 +6549,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6557,16 +6572,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6616,7 +6631,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6637,10 +6652,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6651,7 +6666,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6665,7 +6680,7 @@
         <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -6674,19 +6689,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6723,19 +6738,19 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6756,10 +6771,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6770,7 +6785,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6796,10 +6811,10 @@
         <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6850,7 +6865,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6874,7 +6889,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6885,7 +6900,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6914,7 +6929,7 @@
         <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6967,7 +6982,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6991,7 +7006,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7002,11 +7017,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7028,10 +7043,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>104</v>
@@ -7086,7 +7101,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7121,7 +7136,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7147,16 +7162,16 @@
         <v>154</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7181,13 +7196,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7205,7 +7220,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>55</v>
@@ -7223,7 +7238,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>175</v>
@@ -7240,7 +7255,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7263,16 +7278,16 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>238</v>
@@ -7324,7 +7339,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7342,7 +7357,7 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>243</v>
@@ -7359,7 +7374,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7385,16 +7400,16 @@
         <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7419,13 +7434,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7443,7 +7458,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7452,7 +7467,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7467,7 +7482,7 @@
         <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7478,11 +7493,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7504,16 +7519,16 @@
         <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7538,13 +7553,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7562,7 +7577,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7580,24 +7595,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7623,16 +7638,16 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7681,7 +7696,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7702,10 +7717,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7716,10 +7731,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>45</v>
@@ -7741,19 +7756,19 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7802,7 +7817,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7823,10 +7838,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7837,7 +7852,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7863,10 +7878,10 @@
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7917,7 +7932,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7941,7 +7956,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7952,7 +7967,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7981,7 +7996,7 @@
         <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>104</v>
@@ -8034,7 +8049,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8058,7 +8073,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8069,11 +8084,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8095,10 +8110,10 @@
         <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>104</v>
@@ -8153,7 +8168,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8188,7 +8203,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8214,16 +8229,16 @@
         <v>154</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8233,7 +8248,7 @@
         <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>45</v>
@@ -8248,13 +8263,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8272,7 +8287,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>55</v>
@@ -8290,7 +8305,7 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>175</v>
@@ -8307,7 +8322,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8333,13 +8348,13 @@
         <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>238</v>
@@ -8371,7 +8386,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8389,7 +8404,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8407,7 +8422,7 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>243</v>
@@ -8424,7 +8439,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8450,16 +8465,16 @@
         <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8484,13 +8499,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8508,7 +8523,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8517,7 +8532,7 @@
         <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>67</v>
@@ -8532,7 +8547,7 @@
         <v>98</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8543,11 +8558,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8569,16 +8584,16 @@
         <v>154</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8603,13 +8618,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8627,7 +8642,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8645,24 +8660,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8688,16 +8703,16 @@
         <v>45</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8746,7 +8761,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8767,10 +8782,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8781,10 +8796,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -8806,19 +8821,19 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8867,7 +8882,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8888,10 +8903,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8902,7 +8917,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8928,10 +8943,10 @@
         <v>57</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8982,7 +8997,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9006,7 +9021,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9017,7 +9032,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9046,7 +9061,7 @@
         <v>102</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>104</v>
@@ -9099,7 +9114,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9123,7 +9138,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9134,11 +9149,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9160,10 +9175,10 @@
         <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>104</v>
@@ -9218,7 +9233,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9253,7 +9268,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9279,16 +9294,16 @@
         <v>154</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9298,7 +9313,7 @@
         <v>45</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>45</v>
@@ -9313,13 +9328,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9337,7 +9352,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>55</v>
@@ -9355,7 +9370,7 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>175</v>
@@ -9372,7 +9387,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9398,13 +9413,13 @@
         <v>154</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>238</v>
@@ -9432,11 +9447,11 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9454,7 +9469,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9472,7 +9487,7 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>243</v>
@@ -9489,7 +9504,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9515,16 +9530,16 @@
         <v>154</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9549,13 +9564,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9573,7 +9588,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9582,7 +9597,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>67</v>
@@ -9597,7 +9612,7 @@
         <v>98</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9608,11 +9623,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9634,16 +9649,16 @@
         <v>154</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9668,13 +9683,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9692,7 +9707,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9710,24 +9725,24 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9753,16 +9768,16 @@
         <v>45</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9811,7 +9826,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9832,10 +9847,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9846,10 +9861,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>45</v>
@@ -9871,19 +9886,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -9932,7 +9947,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -9953,10 +9968,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -9967,7 +9982,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9993,10 +10008,10 @@
         <v>57</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10047,7 +10062,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10071,7 +10086,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10082,7 +10097,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10111,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>104</v>
@@ -10164,7 +10179,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10188,7 +10203,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10199,11 +10214,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10225,10 +10240,10 @@
         <v>101</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>104</v>
@@ -10283,7 +10298,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10318,7 +10333,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10344,16 +10359,16 @@
         <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10363,7 +10378,7 @@
         <v>45</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>45</v>
@@ -10378,13 +10393,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10402,7 +10417,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>55</v>
@@ -10420,7 +10435,7 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>175</v>
@@ -10437,7 +10452,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10463,13 +10478,13 @@
         <v>154</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>238</v>
@@ -10497,11 +10512,11 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10519,7 +10534,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10537,7 +10552,7 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>243</v>
@@ -10554,7 +10569,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10580,16 +10595,16 @@
         <v>154</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10614,13 +10629,13 @@
         <v>45</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>45</v>
@@ -10638,7 +10653,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10647,7 +10662,7 @@
         <v>55</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -10662,7 +10677,7 @@
         <v>98</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10673,11 +10688,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10699,16 +10714,16 @@
         <v>154</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -10733,13 +10748,13 @@
         <v>45</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
@@ -10757,7 +10772,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10775,24 +10790,24 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10818,16 +10833,16 @@
         <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -10876,7 +10891,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -10897,10 +10912,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -10911,10 +10926,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>45</v>
@@ -10936,19 +10951,19 @@
         <v>56</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -10997,7 +11012,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11018,10 +11033,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11032,7 +11047,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11058,10 +11073,10 @@
         <v>57</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11112,7 +11127,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11136,7 +11151,7 @@
         <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11147,7 +11162,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11176,7 +11191,7 @@
         <v>102</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>104</v>
@@ -11229,7 +11244,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11253,7 +11268,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11264,11 +11279,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11290,10 +11305,10 @@
         <v>101</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>104</v>
@@ -11348,7 +11363,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11383,7 +11398,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11409,16 +11424,16 @@
         <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11428,7 +11443,7 @@
         <v>45</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>45</v>
@@ -11443,13 +11458,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11467,7 +11482,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>55</v>
@@ -11485,7 +11500,7 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>175</v>
@@ -11502,7 +11517,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11528,13 +11543,13 @@
         <v>154</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>238</v>
@@ -11562,11 +11577,11 @@
         <v>45</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -11584,7 +11599,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11602,7 +11617,7 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>243</v>
@@ -11619,7 +11634,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11645,16 +11660,16 @@
         <v>154</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -11679,13 +11694,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -11703,7 +11718,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11712,7 +11727,7 @@
         <v>55</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>67</v>
@@ -11727,7 +11742,7 @@
         <v>98</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -11738,11 +11753,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11764,16 +11779,16 @@
         <v>154</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -11798,13 +11813,13 @@
         <v>45</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>45</v>
@@ -11822,7 +11837,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -11840,24 +11855,24 @@
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11883,16 +11898,16 @@
         <v>45</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -11941,7 +11956,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -11962,10 +11977,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-cbs-exposure-observation.xlsx
+++ b/StructureDefinition-cbs-exposure-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T17:12:45-05:00</t>
+    <t>2022-02-17T15:59:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
